--- a/public/templates/occurrences.xlsx
+++ b/public/templates/occurrences.xlsx
@@ -17,7 +17,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
-    <t>dateLastModified</t>
+    <t>modified</t>
   </si>
   <si>
     <t>institutionCode</t>
@@ -104,26 +104,26 @@
   </numFmts>
   <fonts count="4">
     <font>
+      <name val="Calibri"/>
+      <charset val="1"/>
+      <family val="2"/>
+      <color rgb="FF000000"/>
       <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+      <sz val="10"/>
     </font>
     <font>
-      <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+      <sz val="10"/>
     </font>
     <font>
-      <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+      <sz val="10"/>
     </font>
   </fonts>
   <fills count="2">
@@ -193,7 +193,7 @@
   <dimension ref="A1:Z1"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="K48" activeCellId="0" pane="topLeft" sqref="K48:L48"/>
+      <selection activeCell="A2" activeCellId="0" pane="topLeft" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.3"/>

--- a/public/templates/occurrences.xlsx
+++ b/public/templates/occurrences.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>modified</t>
   </si>
@@ -30,6 +30,9 @@
   </si>
   <si>
     <t>scientificName</t>
+  </si>
+  <si>
+    <t>identificationQualifier</t>
   </si>
   <si>
     <t>family</t>
@@ -190,10 +193,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Z1"/>
+  <dimension ref="A1:AA1"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="A2" activeCellId="0" pane="topLeft" sqref="A2"/>
+      <selection activeCell="F2" activeCellId="0" pane="topLeft" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.3"/>
@@ -203,28 +206,28 @@
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="12.2105263157895"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.0526315789474"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="12.5263157894737"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="5.76923076923077"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="5.87854251012146"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="12.3198380566802"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="15.6963562753036"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="22.9230769230769"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="10.0971659919028"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="11.5748987854251"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="9.67611336032389"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="12.2105263157895"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="10.6275303643725"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="9.78542510121457"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="4.60728744939271"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="6.29959514170041"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="3.97165991902834"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="7.03238866396761"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="11.4777327935223"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="10.2064777327935"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="6.40485829959514"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="14.5384615384615"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="13.3765182186235"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="16.331983805668"/>
-    <col collapsed="false" hidden="false" max="1025" min="27" style="0" width="9.1417004048583"/>
+    <col collapsed="false" hidden="false" max="7" min="6" style="0" width="5.76923076923077"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="5.87854251012146"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="12.3198380566802"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="15.6963562753036"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="22.9230769230769"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="10.0971659919028"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="11.5748987854251"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="9.67611336032389"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="12.2105263157895"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="10.6275303643725"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="9.78542510121457"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="4.60728744939271"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="6.29959514170041"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="3.97165991902834"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="7.03238866396761"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="11.4777327935223"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="10.2064777327935"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="6.40485829959514"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="14.5384615384615"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="13.3765182186235"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="0" width="16.331983805668"/>
+    <col collapsed="false" hidden="false" max="1025" min="28" style="0" width="9.1417004048583"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="1">
@@ -305,6 +308,9 @@
       </c>
       <c r="Z1" s="0" t="s">
         <v>25</v>
+      </c>
+      <c r="AA1" s="0" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
